--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_mech_spaces_fixed.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_mech_spaces_fixed.xlsx
@@ -11,22 +11,21 @@
     <sheet name="stoic" sheetId="2" r:id="rId2"/>
     <sheet name="mets" sheetId="3" r:id="rId3"/>
     <sheet name="rxns" sheetId="4" r:id="rId4"/>
-    <sheet name="splitRatios" sheetId="5" r:id="rId5"/>
-    <sheet name="poolConst" sheetId="6" r:id="rId6"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" r:id="rId7"/>
-    <sheet name="thermoRxns" sheetId="8" r:id="rId8"/>
-    <sheet name="thermoMets" sheetId="9" r:id="rId9"/>
-    <sheet name="measRates" sheetId="10" r:id="rId10"/>
-    <sheet name="protData" sheetId="11" r:id="rId11"/>
-    <sheet name="metsData" sheetId="12" r:id="rId12"/>
-    <sheet name="kinetics1" sheetId="13" r:id="rId13"/>
+    <sheet name="poolConst" sheetId="5" r:id="rId5"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" r:id="rId6"/>
+    <sheet name="thermoRxns" sheetId="7" r:id="rId7"/>
+    <sheet name="thermoMets" sheetId="8" r:id="rId8"/>
+    <sheet name="measRates" sheetId="9" r:id="rId9"/>
+    <sheet name="protData" sheetId="10" r:id="rId10"/>
+    <sheet name="metsData" sheetId="11" r:id="rId11"/>
+    <sheet name="kinetics1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="136">
   <si>
     <t>Unnamed: 1</t>
   </si>
@@ -190,12 +189,6 @@
     <t>balanced?</t>
   </si>
   <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -238,7 +231,7 @@
     <t>S-adenosyl-homocysteine</t>
   </si>
   <si>
-    <t>pterin-4a-carbinolamin</t>
+    <t xml:space="preserve">pterin-4a-carbinolamin </t>
   </si>
   <si>
     <t>5-hydroxytryptophan external</t>
@@ -265,7 +258,7 @@
     <t>transportRxn?</t>
   </si>
   <si>
-    <t>modelled?</t>
+    <t>isoenzymes</t>
   </si>
   <si>
     <t>tryptophan hydroxylase</t>
@@ -397,12 +390,18 @@
     <t>AANATCompInhibIndep</t>
   </si>
   <si>
+    <t xml:space="preserve">massAction </t>
+  </si>
+  <si>
+    <t>orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANATCompInhibIndep </t>
+  </si>
+  <si>
     <t>massAction</t>
   </si>
   <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
     <t>fixedExchange</t>
   </si>
   <si>
@@ -418,28 +417,22 @@
     <t>sam_c nactsertn_c meltn_c sah_c</t>
   </si>
   <si>
+    <t xml:space="preserve">accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin1_c trp_c trp_c fivehtp_c pterin2_c </t>
+  </si>
+  <si>
     <t>DDC DDC_tryptm</t>
   </si>
   <si>
     <t>AANAT AANAT_tryptm</t>
   </si>
   <si>
-    <t>putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
-    <t>homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
-    <t>Modeled as mass action</t>
-  </si>
-  <si>
-    <t>ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
+    <t xml:space="preserve">meltn_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -916,138 +909,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="C2">
-        <v>1.21410377655987e-10</v>
-      </c>
-      <c r="D2">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="E2">
-        <v>1.21410377655987e-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>-81.45477745835591</v>
-      </c>
-      <c r="C3">
-        <v>4.0829462385141</v>
-      </c>
-      <c r="D3">
-        <v>-81.45477745835591</v>
-      </c>
-      <c r="E3">
-        <v>4.0829462385141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="C4">
-        <v>7.99594430470695e-07</v>
-      </c>
-      <c r="D4">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="E4">
-        <v>7.99594430470695e-07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="C5">
-        <v>1.84127891703472e-08</v>
-      </c>
-      <c r="D5">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="E5">
-        <v>1.84127891703472e-08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="C6">
-        <v>1.65622684914216e-05</v>
-      </c>
-      <c r="D6">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="E6">
-        <v>1.65622684914216e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="C7">
-        <v>2.35376773094737e-10</v>
-      </c>
-      <c r="D7">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="E7">
-        <v>2.35376773094737e-10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1056,16 +917,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1255,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -1265,16 +1126,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1562,7 +1423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -1572,40 +1433,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1613,13 +1474,13 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1629,9 +1490,6 @@
       </c>
       <c r="K2">
         <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1639,7 +1497,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -1648,16 +1506,13 @@
         <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1665,7 +1520,7 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
@@ -1674,19 +1529,19 @@
         <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1694,16 +1549,13 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1711,7 +1563,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>129</v>
@@ -1724,9 +1576,6 @@
       </c>
       <c r="K6">
         <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1734,7 +1583,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
@@ -1743,16 +1592,13 @@
         <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
         <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1760,28 +1606,25 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
         <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1789,7 +1632,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1803,16 +1646,13 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1828,25 +1668,19 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1854,16 +1688,13 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1878,9 +1709,6 @@
       </c>
       <c r="K14">
         <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2813,15 +2641,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>
@@ -2829,351 +2657,225 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3191,16 +2893,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3208,13 +2910,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3222,13 +2921,10 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3236,13 +2932,10 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3250,13 +2943,10 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3264,13 +2954,10 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3278,13 +2965,10 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3292,13 +2976,10 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3306,13 +2987,10 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3320,13 +2998,10 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3334,13 +3009,10 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3348,13 +3020,10 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3362,13 +3031,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3376,13 +3042,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3392,7 +3055,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3400,72 +3063,107 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3483,7 +3181,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3592,124 +3290,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3719,13 +3299,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3876,7 +3456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -3886,13 +3466,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4113,6 +3693,138 @@
       </c>
       <c r="C21">
         <v>0.000166511544406742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.431738943043251</v>
+      </c>
+      <c r="C2">
+        <v>1.21410377655987e-10</v>
+      </c>
+      <c r="D2">
+        <v>0.431738943043251</v>
+      </c>
+      <c r="E2">
+        <v>1.21410377655987e-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>-81.45477745835591</v>
+      </c>
+      <c r="C3">
+        <v>4.0829462385141</v>
+      </c>
+      <c r="D3">
+        <v>-81.45477745835591</v>
+      </c>
+      <c r="E3">
+        <v>4.0829462385141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>18.5183721041727</v>
+      </c>
+      <c r="C4">
+        <v>7.99594430470695e-07</v>
+      </c>
+      <c r="D4">
+        <v>18.5183721041727</v>
+      </c>
+      <c r="E4">
+        <v>7.99594430470695e-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>-0.567354685137039</v>
+      </c>
+      <c r="C5">
+        <v>1.84127891703472e-08</v>
+      </c>
+      <c r="D5">
+        <v>-0.567354685137039</v>
+      </c>
+      <c r="E5">
+        <v>1.84127891703472e-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>85.3794767878033</v>
+      </c>
+      <c r="C6">
+        <v>1.65622684914216e-05</v>
+      </c>
+      <c r="D6">
+        <v>85.3794767878033</v>
+      </c>
+      <c r="E6">
+        <v>1.65622684914216e-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0.103545682502924</v>
+      </c>
+      <c r="C7">
+        <v>2.35376773094737e-10</v>
+      </c>
+      <c r="D7">
+        <v>0.103545682502924</v>
+      </c>
+      <c r="E7">
+        <v>2.35376773094737e-10</v>
       </c>
     </row>
   </sheetData>
